--- a/OREI_files/10-herd data/MALDI files/MALDI-TOF isolates submitted 9_2_2020.xlsx
+++ b/OREI_files/10-herd data/MALDI files/MALDI-TOF isolates submitted 9_2_2020.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI/10-herd data/MALDI files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/MALDI files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="8_{C0CE070E-ED33-41D4-A285-CD7C47D3566D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5DDC05DD-A3D3-490A-95E2-C3C75A7B45E1}"/>
+  <xr:revisionPtr revIDLastSave="215" documentId="8_{C0CE070E-ED33-41D4-A285-CD7C47D3566D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7396F5D-B860-49BB-9858-F66D0545B79F}"/>
   <bookViews>
-    <workbookView xWindow="8630" yWindow="260" windowWidth="10520" windowHeight="9740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Jan 2021, re-grow MALDI weirdos" sheetId="11" r:id="rId1"/>
-    <sheet name="organizational for Jan shipment" sheetId="10" r:id="rId2"/>
-    <sheet name="still to be done" sheetId="9" r:id="rId3"/>
-    <sheet name="BJ farm" sheetId="8" r:id="rId4"/>
-    <sheet name="Swallowdale farm" sheetId="7" r:id="rId5"/>
-    <sheet name="Butterworks farm" sheetId="6" r:id="rId6"/>
-    <sheet name="Oughta-Be farm" sheetId="5" r:id="rId7"/>
-    <sheet name="Lynd farm" sheetId="4" r:id="rId8"/>
-    <sheet name="Paddlebridge farm" sheetId="3" r:id="rId9"/>
-    <sheet name="Glennview farm" sheetId="1" r:id="rId10"/>
-    <sheet name="Choiniere farm" sheetId="2" r:id="rId11"/>
+    <sheet name="BJ farm" sheetId="8" r:id="rId1"/>
+    <sheet name="Swallowdale farm" sheetId="7" r:id="rId2"/>
+    <sheet name="Butterworks farm" sheetId="6" r:id="rId3"/>
+    <sheet name="Oughta-Be farm" sheetId="5" r:id="rId4"/>
+    <sheet name="Lynd farm" sheetId="4" r:id="rId5"/>
+    <sheet name="Paddlebridge farm" sheetId="3" r:id="rId6"/>
+    <sheet name="Glennview farm" sheetId="1" r:id="rId7"/>
+    <sheet name="Choiniere farm" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="690">
   <si>
     <t>BJ001</t>
   </si>
@@ -2105,391 +2102,13 @@
   </si>
   <si>
     <t>9/2/20 sent 2 box 161 isolates one missing from order</t>
-  </si>
-  <si>
-    <t>Paddlebridge</t>
-  </si>
-  <si>
-    <t>Boxes sent</t>
-  </si>
-  <si>
-    <t>Boxes left</t>
-  </si>
-  <si>
-    <t>Boxes ready to be sent</t>
-  </si>
-  <si>
-    <t>Isolates to finish</t>
-  </si>
-  <si>
-    <t>Box 2</t>
-  </si>
-  <si>
-    <t>Box 1</t>
-  </si>
-  <si>
-    <t>Choiniere</t>
-  </si>
-  <si>
-    <t>Box 2, box 3</t>
-  </si>
-  <si>
-    <t>Box 1 (is there a box 4?)</t>
-  </si>
-  <si>
-    <t>Lynd</t>
-  </si>
-  <si>
-    <t>Swallowdale</t>
-  </si>
-  <si>
-    <t>Glennview</t>
-  </si>
-  <si>
-    <t>vonTrapp</t>
-  </si>
-  <si>
-    <t>Box 1, box 2</t>
-  </si>
-  <si>
-    <t>VT001, both</t>
-  </si>
-  <si>
-    <t>VT37, both</t>
-  </si>
-  <si>
-    <t>Stony Pond</t>
-  </si>
-  <si>
-    <t>Butterworks</t>
-  </si>
-  <si>
-    <t>BW149, both- super contam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJ </t>
-  </si>
-  <si>
-    <t>trying to get clean on BA 11.11</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>GV004</t>
-  </si>
-  <si>
-    <t>lost isolate</t>
-  </si>
-  <si>
-    <t>GV047</t>
-  </si>
-  <si>
-    <t>SP073</t>
-  </si>
-  <si>
-    <t>BW021</t>
-  </si>
-  <si>
-    <t>Oughta-be</t>
-  </si>
-  <si>
-    <t>Need to send to Miss again:</t>
-  </si>
-  <si>
-    <t>Put in TSB 1.11</t>
-  </si>
-  <si>
-    <t>Slow growing 1.11, left in incubator</t>
-  </si>
-  <si>
-    <t>Put in TSB 1.13</t>
-  </si>
-  <si>
-    <t>1.15, trying to get clean BA</t>
-  </si>
-  <si>
-    <t>Put in TSB 1.15</t>
-  </si>
-  <si>
-    <t>Will be checking on Saturday:</t>
-  </si>
-  <si>
-    <t>BW-124</t>
-  </si>
-  <si>
-    <t>GV-123</t>
-  </si>
-  <si>
-    <t>GV-156</t>
-  </si>
-  <si>
-    <t>GV-158</t>
-  </si>
-  <si>
-    <t>LF-004</t>
-  </si>
-  <si>
-    <t>BJ-001</t>
-  </si>
-  <si>
-    <t>BJ-065</t>
-  </si>
-  <si>
-    <t>BJ-075</t>
-  </si>
-  <si>
-    <t>OB-083</t>
-  </si>
-  <si>
-    <t>OB-095</t>
-  </si>
-  <si>
-    <t>VT001</t>
-  </si>
-  <si>
-    <t>VT037</t>
-  </si>
-  <si>
-    <t>Plates not ready until Sun</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>may need extra day grow on BA</t>
-  </si>
-  <si>
-    <t>sophia</t>
-  </si>
-  <si>
-    <t>for OREI</t>
-  </si>
-  <si>
-    <t>vt</t>
-  </si>
-  <si>
-    <t>sw</t>
-  </si>
-  <si>
-    <t>sp</t>
-  </si>
-  <si>
-    <t>pb</t>
-  </si>
-  <si>
-    <t>ob</t>
-  </si>
-  <si>
-    <t>gv</t>
-  </si>
-  <si>
-    <t>cf</t>
-  </si>
-  <si>
-    <t>bw</t>
-  </si>
-  <si>
-    <t>ashma</t>
-  </si>
-  <si>
-    <t>sent without checking</t>
-  </si>
-  <si>
-    <t>strep</t>
-  </si>
-  <si>
-    <t>Staphylococcus chromogenes</t>
-  </si>
-  <si>
-    <t>coryne</t>
-  </si>
-  <si>
-    <t>Staphylococcus aureus</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>Staphylococcus species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staphylococcus pseudintermedius </t>
-  </si>
-  <si>
-    <t>CNS</t>
-  </si>
-  <si>
-    <t>Corynebacterium species</t>
-  </si>
-  <si>
-    <t>Corynebacterium variabile</t>
-  </si>
-  <si>
-    <t>MALDI ID</t>
-  </si>
-  <si>
-    <t>Caitlin ID</t>
-  </si>
-  <si>
-    <t>from same cow!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>producer collected</t>
-  </si>
-  <si>
-    <t>btm</t>
-  </si>
-  <si>
-    <t>ei</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>Summary of 40-herd isolates from Summer 2019 (estimated, Jan. 2021)</t>
-  </si>
-  <si>
-    <t>Number isolates shipped January 2021 to Missouri:</t>
-  </si>
-  <si>
-    <t>gram</t>
-  </si>
-  <si>
-    <t>cat</t>
-  </si>
-  <si>
-    <t>coag</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>weak +</t>
-  </si>
-  <si>
-    <t>white/grey 2-3 mm smooth, DZ hem; gram + cocci, coag+, cat+</t>
-  </si>
-  <si>
-    <t>does morph desc match today?</t>
-  </si>
-  <si>
-    <t>white 1-2 mm smooth, DZ hem, gram + cocci, coag+, cat+</t>
-  </si>
-  <si>
-    <t>white 2mm smooth, SZ hem, gram + cocci, cat+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">should have been ID'd as CNS as cat was positive initially </t>
-  </si>
-  <si>
-    <t>pale yellow 2mm flat smooth, no hem, gram + cocci, cat -</t>
-  </si>
-  <si>
-    <t>rechecked cat originally, bc didn't really trust negative- 1.28.21 was very weak, delayed cat but was positive</t>
-  </si>
-  <si>
-    <t>pale yellow 2-3 mm smooth, no hem, gram + rods, cat +</t>
-  </si>
-  <si>
-    <t>maybe?</t>
-  </si>
-  <si>
-    <t>yes, I believe MALDI</t>
-  </si>
-  <si>
-    <t>original description in binder</t>
-  </si>
-  <si>
-    <t>white, opaque, no hem, gram + cocci, cat +</t>
-  </si>
-  <si>
-    <t>beige, opaque, no hem, gram + cocci, cat +</t>
-  </si>
-  <si>
-    <t>pale yellow 2-3 mm smooth glossy, SZ hem??, gram + cocci, cat +, coag +</t>
-  </si>
-  <si>
-    <t>gram + pleo rods</t>
-  </si>
-  <si>
-    <t>gram + cocci</t>
-  </si>
-  <si>
-    <t>gram + rod</t>
-  </si>
-  <si>
-    <t>no, this one is weird</t>
-  </si>
-  <si>
-    <t>really long rod on gram stain, doesn't look like coryne even</t>
-  </si>
-  <si>
-    <t>Left here to send to Miss:</t>
-  </si>
-  <si>
-    <t>viabiltiy checked 1.28.2021</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Number isolates shipped so far to Missouri:</t>
-  </si>
-  <si>
-    <t>September:</t>
-  </si>
-  <si>
-    <t>January:</t>
-  </si>
-  <si>
-    <t>Isolates left for OREI 10-herd:</t>
-  </si>
-  <si>
-    <t>BJ</t>
-  </si>
-  <si>
-    <t>SW</t>
-  </si>
-  <si>
-    <t>BW</t>
-  </si>
-  <si>
-    <t>OB</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>PB</t>
-  </si>
-  <si>
-    <t>GV</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>Number isolates shipped Septermber to Missouri:</t>
-  </si>
-  <si>
-    <t>endogenous inhibitors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40-herd isolates from Summer 2019 </t>
-  </si>
-  <si>
-    <t>OREI misc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2512,23 +2131,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2541,58 +2145,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="lightUp">
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightUp"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3D2F8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2600,86 +2154,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2998,2476 +2480,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC07BD8-CD0D-4F5A-9AA2-968179E7E4F0}">
-  <dimension ref="A1:L14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7265625" customWidth="1"/>
-    <col min="10" max="10" width="61.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>787</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>761</v>
-      </c>
-      <c r="D2" t="s">
-        <v>760</v>
-      </c>
-      <c r="F2" t="s">
-        <v>792</v>
-      </c>
-      <c r="G2" t="s">
-        <v>776</v>
-      </c>
-      <c r="J2" t="s">
-        <v>789</v>
-      </c>
-      <c r="K2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>762</v>
-      </c>
-      <c r="D3" t="s">
-        <v>760</v>
-      </c>
-      <c r="F3" t="s">
-        <v>792</v>
-      </c>
-      <c r="G3" t="s">
-        <v>776</v>
-      </c>
-      <c r="J3" t="s">
-        <v>789</v>
-      </c>
-      <c r="K3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>787</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>761</v>
-      </c>
-      <c r="D4" t="s">
-        <v>760</v>
-      </c>
-      <c r="F4" t="s">
-        <v>792</v>
-      </c>
-      <c r="G4" t="s">
-        <v>776</v>
-      </c>
-      <c r="J4" t="s">
-        <v>790</v>
-      </c>
-      <c r="K4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>754</v>
-      </c>
-      <c r="D5" t="s">
-        <v>757</v>
-      </c>
-      <c r="F5" t="s">
-        <v>793</v>
-      </c>
-      <c r="G5" t="s">
-        <v>776</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>776</v>
-      </c>
-      <c r="J5" t="s">
-        <v>791</v>
-      </c>
-      <c r="K5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>759</v>
-      </c>
-      <c r="D6" t="s">
-        <v>757</v>
-      </c>
-      <c r="E6" t="s">
-        <v>765</v>
-      </c>
-      <c r="F6" t="s">
-        <v>793</v>
-      </c>
-      <c r="G6" t="s">
-        <v>776</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>776</v>
-      </c>
-      <c r="J6" t="s">
-        <v>778</v>
-      </c>
-      <c r="K6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>758</v>
-      </c>
-      <c r="D7" t="s">
-        <v>757</v>
-      </c>
-      <c r="E7" t="s">
-        <v>765</v>
-      </c>
-      <c r="F7" t="s">
-        <v>793</v>
-      </c>
-      <c r="G7" t="s">
-        <v>776</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>776</v>
-      </c>
-      <c r="J7" t="s">
-        <v>780</v>
-      </c>
-      <c r="K7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>619</v>
-      </c>
-      <c r="C8" t="s">
-        <v>754</v>
-      </c>
-      <c r="D8" t="s">
-        <v>753</v>
-      </c>
-      <c r="F8" t="s">
-        <v>793</v>
-      </c>
-      <c r="G8" t="s">
-        <v>777</v>
-      </c>
-      <c r="J8" t="s">
-        <v>783</v>
-      </c>
-      <c r="K8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
-        <v>795</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>649</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>756</v>
-      </c>
-      <c r="D9" t="s">
-        <v>755</v>
-      </c>
-      <c r="F9" t="s">
-        <v>794</v>
-      </c>
-      <c r="G9" t="s">
-        <v>776</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>799</v>
-      </c>
-      <c r="J9" t="s">
-        <v>785</v>
-      </c>
-      <c r="K9" t="s">
-        <v>786</v>
-      </c>
-      <c r="L9" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>787</v>
-      </c>
-      <c r="B10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C10" t="s">
-        <v>754</v>
-      </c>
-      <c r="D10" t="s">
-        <v>753</v>
-      </c>
-      <c r="F10" t="s">
-        <v>793</v>
-      </c>
-      <c r="G10" t="s">
-        <v>776</v>
-      </c>
-      <c r="J10" t="s">
-        <v>781</v>
-      </c>
-      <c r="K10" t="s">
-        <v>79</v>
-      </c>
-      <c r="L10" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G14" t="s">
-        <v>766</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D80"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>396</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D163"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>558</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8E03CF-73B3-4D00-82B4-F183AA96E9FA}">
-  <dimension ref="B3:T49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="18" t="s">
-        <v>772</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="3:13" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="17" t="s">
-        <v>751</v>
-      </c>
-      <c r="D4" s="17">
-        <v>21</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>800</v>
-      </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-    </row>
-    <row r="5" spans="3:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
-        <v>815</v>
-      </c>
-      <c r="D5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
-        <v>750</v>
-      </c>
-      <c r="D6">
-        <v>80</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>801</v>
-      </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>749</v>
-      </c>
-      <c r="D7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
-        <v>748</v>
-      </c>
-      <c r="D8">
-        <v>79</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>802</v>
-      </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C9" t="s">
-        <v>747</v>
-      </c>
-      <c r="D9">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
-        <v>746</v>
-      </c>
-      <c r="D10">
-        <v>81</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>803</v>
-      </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C11" t="s">
-        <v>745</v>
-      </c>
-      <c r="D11">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C12" t="s">
-        <v>744</v>
-      </c>
-      <c r="D12">
-        <v>80</v>
-      </c>
-      <c r="L12" s="1">
-        <f>SUM(L6:L10)</f>
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
-        <v>743</v>
-      </c>
-      <c r="D13">
-        <v>103</v>
-      </c>
-      <c r="E13">
-        <f>SUM(D5:D13)</f>
-        <v>681</v>
-      </c>
-      <c r="F13" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="14" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="26" t="s">
-        <v>741</v>
-      </c>
-      <c r="D14" s="26">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="D16" s="1">
-        <f>SUM(D4:D14)</f>
-        <v>812</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="27" t="s">
-        <v>771</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-    </row>
-    <row r="20" spans="2:18" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="17" t="s">
-        <v>767</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>768</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>769</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="J22" s="1">
-        <f>SUM(C28+F45+H29)</f>
-        <v>329</v>
-      </c>
-      <c r="N22" s="27" t="s">
-        <v>812</v>
-      </c>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-    </row>
-    <row r="23" spans="2:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C23">
-        <v>15</v>
-      </c>
-      <c r="F23">
-        <v>8</v>
-      </c>
-      <c r="H23">
-        <v>12</v>
-      </c>
-      <c r="N23">
-        <v>76</v>
-      </c>
-      <c r="O23" s="21" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>17</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="N24">
-        <v>53</v>
-      </c>
-      <c r="O24" s="20" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="C25">
-        <v>11</v>
-      </c>
-      <c r="F25">
-        <v>9</v>
-      </c>
-      <c r="H25">
-        <v>5</v>
-      </c>
-      <c r="N25">
-        <v>81</v>
-      </c>
-      <c r="O25" s="20" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="C26">
-        <v>6</v>
-      </c>
-      <c r="F26">
-        <v>9</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="N26">
-        <v>81</v>
-      </c>
-      <c r="O26" s="20" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="11">
-        <v>24</v>
-      </c>
-      <c r="F27">
-        <v>7</v>
-      </c>
-      <c r="H27">
-        <v>4</v>
-      </c>
-      <c r="N27">
-        <v>124</v>
-      </c>
-      <c r="O27" s="20" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="17">
-        <f>SUM(C22:C27)</f>
-        <v>59</v>
-      </c>
-      <c r="F28">
-        <v>18</v>
-      </c>
-      <c r="H28" s="11">
-        <v>2</v>
-      </c>
-      <c r="N28">
-        <v>21</v>
-      </c>
-      <c r="O28" s="20" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="F29">
-        <v>16</v>
-      </c>
-      <c r="H29" s="17">
-        <f>SUM(H22:H28)</f>
-        <v>30</v>
-      </c>
-      <c r="N29">
-        <v>77</v>
-      </c>
-      <c r="O29" s="20" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F30">
-        <v>6</v>
-      </c>
-      <c r="N30" s="23">
-        <v>161</v>
-      </c>
-      <c r="O30" s="24" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="F31">
-        <v>11</v>
-      </c>
-      <c r="N31" s="1">
-        <f>SUM(N23:N30)</f>
-        <v>674</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="F32">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F33">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F35">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F37">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F38">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F39">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F40">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F41">
-        <v>12</v>
-      </c>
-      <c r="N41" s="22" t="s">
-        <v>814</v>
-      </c>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="25"/>
-    </row>
-    <row r="42" spans="6:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="F42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F43">
-        <v>9</v>
-      </c>
-      <c r="N43" s="17" t="s">
-        <v>767</v>
-      </c>
-      <c r="Q43">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F44" s="11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="6:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="F45" s="17">
-        <f>SUM(F22:F44)</f>
-        <v>240</v>
-      </c>
-      <c r="N45" s="17" t="s">
-        <v>768</v>
-      </c>
-      <c r="Q45">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="47" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N47" s="26" t="s">
-        <v>813</v>
-      </c>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="17:17" x14ac:dyDescent="0.35">
-      <c r="Q49">
-        <f>SUM(Q43:Q47)</f>
-        <v>329</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I10:K10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4985D82D-8336-4D07-857B-A8E3AB19D280}">
-  <dimension ref="A1:Q32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.08984375" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="B2" t="s">
-        <v>695</v>
-      </c>
-      <c r="C2" t="s">
-        <v>696</v>
-      </c>
-      <c r="D2" t="s">
-        <v>696</v>
-      </c>
-      <c r="K2" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="O3" t="s">
-        <v>726</v>
-      </c>
-      <c r="P3" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="B4" t="s">
-        <v>698</v>
-      </c>
-      <c r="C4" t="s">
-        <v>699</v>
-      </c>
-      <c r="D4" t="s">
-        <v>696</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>720</v>
-      </c>
-      <c r="O4" t="s">
-        <v>727</v>
-      </c>
-      <c r="P4" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="K5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" t="s">
-        <v>724</v>
-      </c>
-      <c r="O5" t="s">
-        <v>728</v>
-      </c>
-      <c r="P5" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="B6" t="s">
-        <v>698</v>
-      </c>
-      <c r="C6" t="s">
-        <v>696</v>
-      </c>
-      <c r="D6" t="s">
-        <v>696</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" t="s">
-        <v>720</v>
-      </c>
-      <c r="O6" t="s">
-        <v>729</v>
-      </c>
-      <c r="P6" t="s">
-        <v>739</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="K7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="B8" t="s">
-        <v>695</v>
-      </c>
-      <c r="C8" t="s">
-        <v>696</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="O8" t="s">
-        <v>730</v>
-      </c>
-      <c r="P8" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="K9" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="L9" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="K10" s="9"/>
-      <c r="O10" t="s">
-        <v>731</v>
-      </c>
-      <c r="P10" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="B11" t="s">
-        <v>695</v>
-      </c>
-      <c r="C11" t="s">
-        <v>696</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="F11" t="s">
-        <v>714</v>
-      </c>
-      <c r="K11" s="8"/>
-      <c r="O11" t="s">
-        <v>732</v>
-      </c>
-      <c r="P11" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E12" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="F12" t="s">
-        <v>714</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="L12" t="s">
-        <v>722</v>
-      </c>
-      <c r="O12" t="s">
-        <v>733</v>
-      </c>
-      <c r="P12" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="K13" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="L13" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" t="s">
-        <v>704</v>
-      </c>
-      <c r="D14" t="s">
-        <v>695</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="O14" t="s">
-        <v>734</v>
-      </c>
-      <c r="P14" t="s">
-        <v>739</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E15" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="K15" s="9"/>
-      <c r="O15" t="s">
-        <v>735</v>
-      </c>
-      <c r="P15" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="K16" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="L16" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="K17" s="9"/>
-      <c r="O17" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="P17" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="C18" t="s">
-        <v>696</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="F18" t="s">
-        <v>714</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="L18" t="s">
-        <v>720</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="K19" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="L19" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="K20" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="L20" t="s">
-        <v>722</v>
-      </c>
-      <c r="O20" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="P20" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="B21" t="s">
-        <v>695</v>
-      </c>
-      <c r="C21" t="s">
-        <v>696</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="F21" t="s">
-        <v>714</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="O21" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="P21" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="E22" t="s">
-        <v>709</v>
-      </c>
-      <c r="G22" t="s">
-        <v>711</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="L22" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="B24" t="s">
-        <v>696</v>
-      </c>
-      <c r="C24" t="s">
-        <v>712</v>
-      </c>
-      <c r="D24" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
-        <v>718</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F26" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>264</v>
-      </c>
-      <c r="B32" t="s">
-        <v>798</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5881,7 +2898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -6179,7 +3196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D82"/>
   <sheetViews>
@@ -6617,7 +3634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E83"/>
   <sheetViews>
@@ -7061,7 +4078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D125"/>
   <sheetViews>
@@ -7710,7 +4727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -7848,4 +4865,1281 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>396</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D163"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>558</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>